--- a/Data/Transitions/19471973Translation.xlsx
+++ b/Data/Transitions/19471973Translation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="969" uniqueCount="745">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="969" uniqueCount="744">
   <si>
     <t>id</t>
   </si>
@@ -79,13 +79,13 @@
     <t>{45.0: 1.0}</t>
   </si>
   <si>
-    <t>{46.0: 0.9985255086994986, 681.0: 0.005648551134411849, 741.0: 0.001379178879419197, 246.0: 0.0019479775409648218}</t>
+    <t>{46.0: 0.9985255086994986, 681.0: 0.005648551134411849, 741.0: 0.0013872263249506789, 246.0: 0.0019479775409648218}</t>
   </si>
   <si>
     <t>{47.0: 1.0}</t>
   </si>
   <si>
-    <t>{49.0: 0.8927723425900513}</t>
+    <t>{49.0: 0.8862897962909823}</t>
   </si>
   <si>
     <t>{50.0: 0.989247311827957, 96.0: 0.989247311827957, 100.0: 0.989247311827957}</t>
@@ -139,7 +139,7 @@
     <t>{78.0: 1.0}</t>
   </si>
   <si>
-    <t>{79.0: 0.9993500645023944, 271.0: 0.014820863280979566, 262.0: 0.0031614305473226635}</t>
+    <t>{79.0: 0.9993781418780706, 271.0: 0.014820863280979566, 262.0: 0.0031614305473226635}</t>
   </si>
   <si>
     <t>{81.0: 0.9862542955326461}</t>
@@ -169,16 +169,16 @@
     <t>{90.0: 0.999293500201857, 420.0: 0.0017320652248592728}</t>
   </si>
   <si>
-    <t>{91.0: 1.0, 92.0: 0.04376513415565631, 858.0: 0.004867508316901873}</t>
-  </si>
-  <si>
-    <t>{92.0: 0.9562348658443437, 858.0: 0.10635135141719504}</t>
+    <t>{91.0: 1.0, 92.0: 0.04376513415565631, 858.0: 0.00453890631355781}</t>
+  </si>
+  <si>
+    <t>{92.0: 0.9562348658443437, 858.0: 0.09917164778675883}</t>
   </si>
   <si>
     <t>{95.0: 1.0}</t>
   </si>
   <si>
-    <t>{97.0: 0.9748096321134647}</t>
+    <t>{97.0: 0.9748314063154819}</t>
   </si>
   <si>
     <t>{98.0: 0.801192063367579}</t>
@@ -220,7 +220,7 @@
     <t>{144.0: 1.0}</t>
   </si>
   <si>
-    <t>{145.0: 0.9987441357199506, 743.0: 0.002920931244925139, 544.0: 2.533420491138831e-06, 975.0: 0.005110374932125487, 942.0: 0.03131128830016397, 152.0: 0.00036603571619543685}</t>
+    <t>{145.0: 0.9987441357199506, 743.0: 0.0029287602462860877, 544.0: 2.533420491138831e-06, 975.0: 0.005110374932125487, 942.0: 0.03131128830016397, 152.0: 0.00036603571619543685}</t>
   </si>
   <si>
     <t>{146.0: 1.0}</t>
@@ -268,7 +268,7 @@
     <t>{171.0: 0.9402494826791316}</t>
   </si>
   <si>
-    <t>{172.0: 1.0, 81.0: 0.013745704467353952, 97.0: 0.001254904263791793}</t>
+    <t>{172.0: 1.0, 81.0: 0.013745704467353952, 97.0: 0.0012549322944329067}</t>
   </si>
   <si>
     <t>{173.0: 0.9233712163834815, 185.0: 0.024849397590361446, 700.0: 0.0003822523607160589, 420.0: 0.0055694725870200175, 831.0: 0.004032258064516129}</t>
@@ -286,7 +286,7 @@
     <t>{177.0: 1.0, 562.0: 0.0005025757004648825}</t>
   </si>
   <si>
-    <t>{178.0: 0.9847554038680318, 681.0: 0.010330059016298597, 768.0: 0.012138970280452072}</t>
+    <t>{178.0: 0.9847554038680318, 681.0: 0.010415463666074353, 768.0: 0.012138970280452072}</t>
   </si>
   <si>
     <t>{179.0: 1.0, 180.0: 0.2102963895697321}</t>
@@ -307,10 +307,10 @@
     <t>{184.0: 0.9938086184968266, 778.0: 0.0034971470642370696, 420.0: 5.360433881417949e-06}</t>
   </si>
   <si>
-    <t>{858.0: 0.45766386834936346}</t>
-  </si>
-  <si>
-    <t>{311.0: 1.140246459639255}</t>
+    <t>{858.0: 0.3251826980051353}</t>
+  </si>
+  <si>
+    <t>{311.0: 0.710222727687857}</t>
   </si>
   <si>
     <t>{202.0: 0.9989543030429782}</t>
@@ -391,13 +391,13 @@
     <t>{233.0: 1.0}</t>
   </si>
   <si>
-    <t>{49.0: 0.10722765740994868}</t>
+    <t>{49.0: 0.1137102037090177}</t>
   </si>
   <si>
     <t>{236.0: 1.0}</t>
   </si>
   <si>
-    <t>{238.0: 1.0, 253.0: 0.0025682932523931824}</t>
+    <t>{238.0: 1.0, 253.0: 0.0025246729400963965}</t>
   </si>
   <si>
     <t>{239.0: 1.0}</t>
@@ -415,10 +415,10 @@
     <t>{244.0: 0.9799247176913425, 565.0: 0.010029762906098711, 564.0: 0.00018847476794044198, 84.0: 6.004536785832098e-05}</t>
   </si>
   <si>
-    <t>{858.0: 0.36701058067946674}</t>
-  </si>
-  <si>
-    <t>{246.0: 0.9980520224590351, 46.0: 0.001474491300501327, 681.0: 8.34103829653256e-06, 741.0: 2.0365901940626062e-06, 618.0: 0.0016652789342214821}</t>
+    <t>{858.0: 0.262525543590365}</t>
+  </si>
+  <si>
+    <t>{246.0: 0.9980520224590351, 46.0: 0.001474491300501327, 681.0: 8.34103829653256e-06, 741.0: 2.0484736044753086e-06, 618.0: 0.0016652789342214821}</t>
   </si>
   <si>
     <t>{247.0: 1.0}</t>
@@ -439,7 +439,7 @@
     <t>{252.0: 1.0}</t>
   </si>
   <si>
-    <t>{253.0: 0.9974317067476068}</t>
+    <t>{253.0: 0.9974753270599036}</t>
   </si>
   <si>
     <t>{254.0: 1.0}</t>
@@ -463,7 +463,7 @@
     <t>{261.0: 1.0}</t>
   </si>
   <si>
-    <t>{262.0: 0.9968385694526773, 79.0: 0.0006499354976056577}</t>
+    <t>{262.0: 0.9968385694526773, 79.0: 0.0006218581219293059}</t>
   </si>
   <si>
     <t>{263.0: 0.9979662270430174}</t>
@@ -472,7 +472,7 @@
     <t>{265.0: 1.0}</t>
   </si>
   <si>
-    <t>{400.0: 0.0657712818487063}</t>
+    <t>{400.0: 0.061638130495141136}</t>
   </si>
   <si>
     <t>{271.0: 0.9851791367190204, 237.0: 1.0}</t>
@@ -511,7 +511,7 @@
     <t>{284.0: 1.0}</t>
   </si>
   <si>
-    <t>{285.0: 1.0, 311.0: -0.01593502092076081}</t>
+    <t>{285.0: 1.0, 311.0: 0.11340988641029195}</t>
   </si>
   <si>
     <t>{286.0: 1.0, 909.0: 0.11458663141263672, 306.0: 0.011054877862037047, 908.0: 0.04976895689720476, 788.0: 0.0027733768944140946, 142.0: 1.797534470597053e-05}</t>
@@ -550,7 +550,7 @@
     <t>{300.0: 1.0}</t>
   </si>
   <si>
-    <t>{301.0: 1.0, 145.0: 0.00038146212501716855, 743.0: 1.1156257142025587e-06, 544.0: 9.676191624546752e-10, 975.0: 1.9518657597301533e-06, 942.0: 1.195908956541287e-05, 152.0: 1.3980433740563627e-07}</t>
+    <t>{301.0: 1.0, 145.0: 0.00038146212501716855, 743.0: 1.118615937012485e-06, 544.0: 9.676191624546752e-10, 975.0: 1.9518657597301533e-06, 942.0: 1.195908956541287e-05, 152.0: 1.3980433740563627e-07}</t>
   </si>
   <si>
     <t>{303.0: 0.9475683890577508, 840.0: 0.10136869118905047}</t>
@@ -574,7 +574,7 @@
     <t>{310.0: 1.0}</t>
   </si>
   <si>
-    <t>{311.0: -0.12431143871849425}</t>
+    <t>{311.0: 0.17636738590185097}</t>
   </si>
   <si>
     <t>{312.0: 1.0, 5.0: 0.016017234919445487, 759.0: 0.003654342218400688, 226.0: 0.0002714072465734835}</t>
@@ -595,7 +595,7 @@
     <t>{319.0: 1.0}</t>
   </si>
   <si>
-    <t>{320.0: 0.6871389480085133}</t>
+    <t>{242.0: 1.0}</t>
   </si>
   <si>
     <t>{398.0: 1.0, 98.0: 0.198807936632421, 532.0: 0.33661933616713396, 560.0: 0.09696578437701743}</t>
@@ -604,7 +604,7 @@
     <t>{399.0: 1.0}</t>
   </si>
   <si>
-    <t>{400.0: 0.9342287181512937, 50.0: 0.010752688172043012, 96.0: 0.010752688172043012, 100.0: 0.010752688172043012}</t>
+    <t>{400.0: 0.9383618695048589, 50.0: 0.010752688172043012, 96.0: 0.010752688172043012, 100.0: 0.010752688172043012}</t>
   </si>
   <si>
     <t>{401.0: 1.0, 16.0: 0.005869490159972379, 165.0: 0.0005466721333880005, 914.0: 0.0001117479774241194, 110.0: 1.5428089554535637e-05}</t>
@@ -673,10 +673,10 @@
     <t>{426.0: 1.0}</t>
   </si>
   <si>
-    <t>{428.0: 0.26721824686940965, 755.0: 0.13485851896447923}</t>
-  </si>
-  <si>
-    <t>{428.0: 0.7327817531305904}</t>
+    <t>{428.0: 0.21205489175440673, 755.0: 0.13485851896447923}</t>
+  </si>
+  <si>
+    <t>{428.0: 0.7879451082455933}</t>
   </si>
   <si>
     <t>{429.0: 1.0}</t>
@@ -763,13 +763,13 @@
     <t>{491.0: 1.0}</t>
   </si>
   <si>
-    <t>{492.0: 0.995625, 85.0: 0.0014297385620915032, 178.0: 0.015244596131968146, 97.0: 0.023935463622743416}</t>
+    <t>{492.0: 0.995625, 85.0: 0.0014297385620915032, 178.0: 0.015244596131968146, 97.0: 0.023913661390085057}</t>
   </si>
   <si>
     <t>{493.0: 0.9964826549013788}</t>
   </si>
   <si>
-    <t>{494.0: 0.979825999243475, 889.0: 0.0006215198201897897, 565.0: 1.629934096866161e-05}</t>
+    <t>{494.0: 0.979825999243475, 889.0: 0.0010856577184348603, 565.0: 1.629934096866161e-05}</t>
   </si>
   <si>
     <t>{495.0: 1.0}</t>
@@ -826,7 +826,7 @@
     <t>{536.0: 1.0, 779.0: 0.9517781796262809}</t>
   </si>
   <si>
-    <t>{537.0: 1.0, 608.0: 0.027455765710799267, 293.0: 0.035617916891527254}</t>
+    <t>{537.0: 1.0, 608.0: 0.026122291021671826, 293.0: 0.035617916891527254}</t>
   </si>
   <si>
     <t>{538.0: 0.9993696816892531}</t>
@@ -838,7 +838,7 @@
     <t>{540.0: 1.0}</t>
   </si>
   <si>
-    <t>{542.0: 1.0, 911.0: 0.012496045555204052}</t>
+    <t>{542.0: 1.0, 911.0: 0.012482224680044242}</t>
   </si>
   <si>
     <t>{543.0: 1.0}</t>
@@ -892,7 +892,7 @@
     <t>{582.0: 1.0}</t>
   </si>
   <si>
-    <t>{583.0: 0.45294474802671525}</t>
+    <t>{583.0: 0.5739952718676123}</t>
   </si>
   <si>
     <t>{584.0: 1.0}</t>
@@ -910,16 +910,16 @@
     <t>{588.0: 1.0}</t>
   </si>
   <si>
-    <t>{589.0: 1.0, 145.0: 0.000656024491581019, 743.0: 0.013299521821319988, 10.0: 0.006268500783562598}</t>
+    <t>{589.0: 1.0, 145.0: 0.000656024491581019, 743.0: 0.010654858616757608, 10.0: 0.006268500783562598}</t>
   </si>
   <si>
     <t>{592.0: 1.0}</t>
   </si>
   <si>
-    <t>{593.0: 0.3232683533803401}</t>
-  </si>
-  <si>
-    <t>{593.0: 0.6767316466196599, 85.0: 0.005416860752281957, 492.0: 1.8647119341563785e-05}</t>
+    <t>{593.0: 0.49682353666810586}</t>
+  </si>
+  <si>
+    <t>{593.0: 0.5031764633318941, 85.0: 0.005416860752281957, 492.0: 1.8647119341563785e-05}</t>
   </si>
   <si>
     <t>{595.0: 1.0}</t>
@@ -949,7 +949,7 @@
     <t>{607.0: 0.9993920972644377, 276.0: 0.00019373695788784293}</t>
   </si>
   <si>
-    <t>{608.0: 0.9725442342892008}</t>
+    <t>{608.0: 0.9738777089783281}</t>
   </si>
   <si>
     <t>{609.0: 1.0, 610.0: 0.0008002743797873557, 531.0: 0.12147832833239579, 886.0: 0.05296831411160708, 1.0: 1.0}</t>
@@ -976,7 +976,7 @@
     <t>{617.0: 1.0}</t>
   </si>
   <si>
-    <t>{618.0: 0.9983347210657785, 789.0: 0.10684711957973467, 681.0: 0.008360022404934518, 171.0: 4.0428638151574166e-05, 90.0: 6.01421623358749e-06, 420.0: 1.042437961507482e-08, 212.0: 6.516894539153505e-05}</t>
+    <t>{618.0: 0.9983347210657785, 789.0: 0.10684711957973467, 681.0: 0.008359295381328206, 171.0: 4.0428638151574166e-05, 90.0: 6.01421623358749e-06, 420.0: 1.042437961507482e-08, 212.0: 6.516894539153505e-05}</t>
   </si>
   <si>
     <t>{619.0: 0.9992133045579098}</t>
@@ -1030,7 +1030,7 @@
     <t>{680.0: 0.9762594508880611, 481.0: 0.018092175285225227, 529.0: 0.008019367529126948, 530.0: 0.008019367529126948, 853.0: 4.911970472040362e-05}</t>
   </si>
   <si>
-    <t>{681.0: 0.9038226351951332, 171.0: 0.004370839753962654, 90.0: 0.0006502117460433972, 420.0: 1.1270053831925288e-06, 212.0: 0.007045575370934223}</t>
+    <t>{681.0: 0.9037440348804595, 171.0: 0.004370839753962654, 90.0: 0.0006502117460433972, 420.0: 1.1270053831925288e-06, 212.0: 0.007045575370934223}</t>
   </si>
   <si>
     <t>{682.0: 0.9972826086956522, 575.0: 0.001898599635799961}</t>
@@ -1069,10 +1069,10 @@
     <t>{697.0: 1.0}</t>
   </si>
   <si>
-    <t>{698.0: 0.20776196468091965}</t>
-  </si>
-  <si>
-    <t>{698.0: 0.7922380353190803, 683.0: 0.00887163848073191}</t>
+    <t>{698.0: 0.4351638564266561}</t>
+  </si>
+  <si>
+    <t>{698.0: 0.5648361435733439, 683.0: 0.00887163848073191}</t>
   </si>
   <si>
     <t>{700.0: 0.305947407722146}</t>
@@ -1123,16 +1123,16 @@
     <t>{739.0: 1.0, 831.0: 0.0011072459610177697}</t>
   </si>
   <si>
-    <t>{740.0: 1.0, 789.0: 0.8931528804202653, 681.0: 0.06988282061991512, 171.0: 0.00033794972441536703, 90.0: 5.0273835865930085e-05, 420.0: 8.713912659901293e-08, 212.0: 0.00054475807601874}</t>
-  </si>
-  <si>
-    <t>{741.0: 0.9986187845303868}</t>
-  </si>
-  <si>
-    <t>{583.0: 0.5470552519732848}</t>
-  </si>
-  <si>
-    <t>{743.0: 0.9837784313080407, 145.0: 0.0002183776634512975, 544.0: 0.0008532636435542259, 975.0: 6.058676758964917e-07}</t>
+    <t>{740.0: 1.0, 789.0: 0.8931528804202653, 681.0: 0.06987674330841935, 171.0: 0.00033794972441536703, 90.0: 5.0273835865930085e-05, 420.0: 8.713912659901293e-08, 212.0: 0.00054475807601874}</t>
+  </si>
+  <si>
+    <t>{741.0: 0.9986107252014449}</t>
+  </si>
+  <si>
+    <t>{583.0: 0.4260047281323877}</t>
+  </si>
+  <si>
+    <t>{743.0: 0.9864152625210193, 145.0: 0.0002183776634512975, 544.0: 0.0008532636435542259, 975.0: 6.058676758964917e-07}</t>
   </si>
   <si>
     <t>{746.0: 1.0}</t>
@@ -1219,7 +1219,7 @@
     <t>{784.0: 1.0}</t>
   </si>
   <si>
-    <t>{785.0: 0.9968371837183718, 889.0: 0.5730622017651047}</t>
+    <t>{785.0: 0.9968371837183718, 889.0: 0.25659597967009595}</t>
   </si>
   <si>
     <t>{787.0: 1.0, 500.0: 0.0077458518588053235, 277.0: 2.053999443459568e-06}</t>
@@ -1264,7 +1264,7 @@
     <t>{846.0: 0.9996156310057656}</t>
   </si>
   <si>
-    <t>{848.0: 0.9232439017315892}</t>
+    <t>{848.0: 0.9228851136919364}</t>
   </si>
   <si>
     <t>{849.0: 1.0, 315.0: 0.002220029600394672}</t>
@@ -1294,7 +1294,7 @@
     <t>{857.0: 1.0}</t>
   </si>
   <si>
-    <t>{858.0: 0.06410669123707292}</t>
+    <t>{858.0: 0.308581204304183}</t>
   </si>
   <si>
     <t>{859.0: 1.0}</t>
@@ -1315,7 +1315,7 @@
     <t>{887.0: 0.9495979142632915, 619.0: 0.0006435006435006435, 267.0: 0.07029177718832891}</t>
   </si>
   <si>
-    <t>{889.0: 0.4244980371896264, 565.0: 0.01113244988159588, 494.0: 0.020174000756525028}</t>
+    <t>{889.0: 0.7415042216910095, 565.0: 0.01113244988159588, 494.0: 0.020174000756525028}</t>
   </si>
   <si>
     <t>{890.0: 1.0}</t>
@@ -1348,7 +1348,7 @@
     <t>{909.0: 0.8854133685873632}</t>
   </si>
   <si>
-    <t>{911.0: 0.987503954444796, 687.0: 0.006852159468438538}</t>
+    <t>{911.0: 0.9875177753199558, 687.0: 0.006852159468438538}</t>
   </si>
   <si>
     <t>{861.0: 1.0, 225.0: 1.0, 779.0: 0.04822182037371911, 493.0: 0.0028425812659627287, 619.0: 0.0001431947985895543}</t>
@@ -1420,7 +1420,7 @@
     <t>{937.0: 1.0}</t>
   </si>
   <si>
-    <t>{940.0: 1.0, 206.0: 0.0009120389136603161, 578.0: 0.00016603527800446063, 785.0: 0.0031628162816281628, 889.0: 0.0018182412250789639}</t>
+    <t>{940.0: 1.0, 206.0: 0.0009120389136603161, 578.0: 0.00016603527800446063, 785.0: 0.0031628162816281628, 889.0: 0.0008141409204596781}</t>
   </si>
   <si>
     <t>{941.0: 1.0}</t>
@@ -1429,7 +1429,7 @@
     <t>{942.0: 0.9686767526102706}</t>
   </si>
   <si>
-    <t>{943.0: 1.0, 848.0: 0.07675609826841082}</t>
+    <t>{943.0: 1.0, 848.0: 0.07711488630806371}</t>
   </si>
   <si>
     <t>{944.0: 0.9511068120833203}</t>
@@ -1618,7 +1618,7 @@
     <t>{177.0: 0.9988607234406153, 562.0: 0.0011392765593847907}</t>
   </si>
   <si>
-    <t>{178.0: 0.986260226386314, 681.0: 0.0071717530791852065, 768.0: 0.006568020534500982}</t>
+    <t>{178.0: 0.9862044958405799, 681.0: 0.0072274836249193305, 768.0: 0.006568020534500982}</t>
   </si>
   <si>
     <t>{179.0: 0.8967913904273564, 180.0: 0.10320860957264365}</t>
@@ -1714,7 +1714,7 @@
     <t>{271.0: 0.8115203638861601, 237.0: 0.1884796361138399}</t>
   </si>
   <si>
-    <t>{275.0: 0.9445925803714912, 921.0: 0.009442148944137254, 77.0: 0.045965270684371805}</t>
+    <t>{275.0: 0.944592580371491, 921.0: 0.009442148944137254, 77.0: 0.045965270684371805}</t>
   </si>
   <si>
     <t>{276.0: 0.9986445928937943, 167.0: 0.0005680531756420232, 596.0: 0.0007873539305638049}</t>
@@ -1771,9 +1771,6 @@
     <t>{315.0: 1.0}</t>
   </si>
   <si>
-    <t>{320.0: 1.0}</t>
-  </si>
-  <si>
     <t>{398.0: 0.8644858180802012, 98.0: 0.04427483582506636, 532.0: 0.0650062875506497, 560.0: 0.026233058544082716}</t>
   </si>
   <si>
@@ -2107,7 +2104,7 @@
     <t>{781.0: 0.9992775312209718, 435.0: 0.0007224687790277634}</t>
   </si>
   <si>
-    <t>{785.0: 0.7952854710047504, 889.0: 0.20471452899524964}</t>
+    <t>{785.0: 0.6852693950668322, 889.0: 0.314730604933168}</t>
   </si>
   <si>
     <t>{787.0: 0.9919894647611932, 500.0: 0.0080055674650148, 277.0: 4.967773791507788e-06}</t>
@@ -2128,7 +2125,7 @@
     <t>{836.0: 1.0}</t>
   </si>
   <si>
-    <t>{837.0: 0.9497164781945019, 980.0: 0.01844485800684812, 2.0: 0.014271143668772836, 840.0: 0.016429609884430787, 303.0: 0.0011379102454461474}</t>
+    <t>{837.0: 0.9497164781945026, 980.0: 0.01844485800684812, 2.0: 0.014271143668772836, 840.0: 0.016429609884430787, 303.0: 0.0011379102454461474}</t>
   </si>
   <si>
     <t>{838.0: 0.9948208890807074, 423.0: 0.005179110919292188}</t>
@@ -2224,13 +2221,13 @@
     <t>{936.0: 0.9836341995635787, 637.0: 0.016365800436421343}</t>
   </si>
   <si>
-    <t>{940.0: 0.9932928107315031, 206.0: 0.0015124655498356696, 578.0: 0.0003739314319291597, 785.0: 0.003833906064369998, 889.0: 0.0009868862223623436}</t>
+    <t>{940.0: 0.9932928107315031, 206.0: 0.0015124655498356696, 578.0: 0.0003739314319291597, 785.0: 0.0033035414140719214, 889.0: 0.00151725087266042}</t>
   </si>
   <si>
     <t>{942.0: 1.0}</t>
   </si>
   <si>
-    <t>{943.0: 0.8000222720249447, 848.0: 0.19997772797505534}</t>
+    <t>{943.0: 0.770064142065748, 848.0: 0.22993585793425234}</t>
   </si>
   <si>
     <t>{944.0: 1.0}</t>
@@ -4721,7 +4718,7 @@
         <v>193</v>
       </c>
       <c r="C192" t="s">
-        <v>585</v>
+        <v>193</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -4732,7 +4729,7 @@
         <v>194</v>
       </c>
       <c r="C193" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -4754,7 +4751,7 @@
         <v>196</v>
       </c>
       <c r="C195" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -4765,7 +4762,7 @@
         <v>197</v>
       </c>
       <c r="C196" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -4776,7 +4773,7 @@
         <v>198</v>
       </c>
       <c r="C197" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -4787,7 +4784,7 @@
         <v>199</v>
       </c>
       <c r="C198" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -4798,7 +4795,7 @@
         <v>200</v>
       </c>
       <c r="C199" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -4842,7 +4839,7 @@
         <v>204</v>
       </c>
       <c r="C203" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -4864,7 +4861,7 @@
         <v>206</v>
       </c>
       <c r="C205" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -4908,7 +4905,7 @@
         <v>210</v>
       </c>
       <c r="C209" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -4930,7 +4927,7 @@
         <v>212</v>
       </c>
       <c r="C211" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -4963,7 +4960,7 @@
         <v>215</v>
       </c>
       <c r="C214" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -4985,7 +4982,7 @@
         <v>217</v>
       </c>
       <c r="C216" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -5007,7 +5004,7 @@
         <v>219</v>
       </c>
       <c r="C218" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -5018,7 +5015,7 @@
         <v>220</v>
       </c>
       <c r="C219" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -5062,7 +5059,7 @@
         <v>224</v>
       </c>
       <c r="C223" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -5084,7 +5081,7 @@
         <v>226</v>
       </c>
       <c r="C225" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -5095,7 +5092,7 @@
         <v>227</v>
       </c>
       <c r="C226" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -5106,7 +5103,7 @@
         <v>228</v>
       </c>
       <c r="C227" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -5128,7 +5125,7 @@
         <v>230</v>
       </c>
       <c r="C229" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -5172,7 +5169,7 @@
         <v>234</v>
       </c>
       <c r="C233" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -5183,7 +5180,7 @@
         <v>235</v>
       </c>
       <c r="C234" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -5194,7 +5191,7 @@
         <v>236</v>
       </c>
       <c r="C235" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -5205,7 +5202,7 @@
         <v>237</v>
       </c>
       <c r="C236" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -5216,7 +5213,7 @@
         <v>238</v>
       </c>
       <c r="C237" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -5238,7 +5235,7 @@
         <v>240</v>
       </c>
       <c r="C239" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -5304,7 +5301,7 @@
         <v>246</v>
       </c>
       <c r="C245" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="246" spans="1:3">
@@ -5337,7 +5334,7 @@
         <v>249</v>
       </c>
       <c r="C248" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -5348,7 +5345,7 @@
         <v>250</v>
       </c>
       <c r="C249" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -5359,7 +5356,7 @@
         <v>251</v>
       </c>
       <c r="C250" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -5381,7 +5378,7 @@
         <v>253</v>
       </c>
       <c r="C252" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -5403,7 +5400,7 @@
         <v>255</v>
       </c>
       <c r="C254" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -5414,7 +5411,7 @@
         <v>256</v>
       </c>
       <c r="C255" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="256" spans="1:3">
@@ -5458,7 +5455,7 @@
         <v>260</v>
       </c>
       <c r="C259" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="260" spans="1:3">
@@ -5491,7 +5488,7 @@
         <v>263</v>
       </c>
       <c r="C262" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -5502,7 +5499,7 @@
         <v>264</v>
       </c>
       <c r="C263" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -5513,7 +5510,7 @@
         <v>265</v>
       </c>
       <c r="C264" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -5535,7 +5532,7 @@
         <v>267</v>
       </c>
       <c r="C266" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -5557,7 +5554,7 @@
         <v>269</v>
       </c>
       <c r="C268" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -5568,7 +5565,7 @@
         <v>270</v>
       </c>
       <c r="C269" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -5579,7 +5576,7 @@
         <v>271</v>
       </c>
       <c r="C270" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="271" spans="1:3">
@@ -5612,7 +5609,7 @@
         <v>274</v>
       </c>
       <c r="C273" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="274" spans="1:3">
@@ -5634,7 +5631,7 @@
         <v>276</v>
       </c>
       <c r="C275" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="276" spans="1:3">
@@ -5645,7 +5642,7 @@
         <v>277</v>
       </c>
       <c r="C276" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="277" spans="1:3">
@@ -5656,7 +5653,7 @@
         <v>278</v>
       </c>
       <c r="C277" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="278" spans="1:3">
@@ -5667,7 +5664,7 @@
         <v>279</v>
       </c>
       <c r="C278" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="279" spans="1:3">
@@ -5678,7 +5675,7 @@
         <v>280</v>
       </c>
       <c r="C279" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="280" spans="1:3">
@@ -5689,7 +5686,7 @@
         <v>281</v>
       </c>
       <c r="C280" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="281" spans="1:3">
@@ -5711,7 +5708,7 @@
         <v>283</v>
       </c>
       <c r="C282" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="283" spans="1:3">
@@ -5722,7 +5719,7 @@
         <v>284</v>
       </c>
       <c r="C283" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="284" spans="1:3">
@@ -5744,7 +5741,7 @@
         <v>286</v>
       </c>
       <c r="C285" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="286" spans="1:3">
@@ -5755,7 +5752,7 @@
         <v>287</v>
       </c>
       <c r="C286" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="287" spans="1:3">
@@ -5777,7 +5774,7 @@
         <v>289</v>
       </c>
       <c r="C288" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="289" spans="1:3">
@@ -5788,7 +5785,7 @@
         <v>290</v>
       </c>
       <c r="C289" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="290" spans="1:3">
@@ -5810,7 +5807,7 @@
         <v>292</v>
       </c>
       <c r="C291" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="292" spans="1:3">
@@ -5832,7 +5829,7 @@
         <v>294</v>
       </c>
       <c r="C293" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="294" spans="1:3">
@@ -5843,7 +5840,7 @@
         <v>295</v>
       </c>
       <c r="C294" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="295" spans="1:3">
@@ -5876,7 +5873,7 @@
         <v>298</v>
       </c>
       <c r="C297" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="298" spans="1:3">
@@ -5898,7 +5895,7 @@
         <v>300</v>
       </c>
       <c r="C299" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="300" spans="1:3">
@@ -5909,7 +5906,7 @@
         <v>301</v>
       </c>
       <c r="C300" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="301" spans="1:3">
@@ -5931,7 +5928,7 @@
         <v>303</v>
       </c>
       <c r="C302" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="303" spans="1:3">
@@ -5942,7 +5939,7 @@
         <v>304</v>
       </c>
       <c r="C303" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="304" spans="1:3">
@@ -5964,7 +5961,7 @@
         <v>306</v>
       </c>
       <c r="C305" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="306" spans="1:3">
@@ -5975,7 +5972,7 @@
         <v>307</v>
       </c>
       <c r="C306" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="307" spans="1:3">
@@ -5997,7 +5994,7 @@
         <v>309</v>
       </c>
       <c r="C308" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="309" spans="1:3">
@@ -6008,7 +6005,7 @@
         <v>310</v>
       </c>
       <c r="C309" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="310" spans="1:3">
@@ -6019,7 +6016,7 @@
         <v>311</v>
       </c>
       <c r="C310" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="311" spans="1:3">
@@ -6030,7 +6027,7 @@
         <v>312</v>
       </c>
       <c r="C311" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="312" spans="1:3">
@@ -6052,7 +6049,7 @@
         <v>314</v>
       </c>
       <c r="C313" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="314" spans="1:3">
@@ -6063,7 +6060,7 @@
         <v>315</v>
       </c>
       <c r="C314" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="315" spans="1:3">
@@ -6096,7 +6093,7 @@
         <v>318</v>
       </c>
       <c r="C317" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="318" spans="1:3">
@@ -6118,7 +6115,7 @@
         <v>320</v>
       </c>
       <c r="C319" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="320" spans="1:3">
@@ -6129,7 +6126,7 @@
         <v>321</v>
       </c>
       <c r="C320" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="321" spans="1:3">
@@ -6151,7 +6148,7 @@
         <v>323</v>
       </c>
       <c r="C322" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="323" spans="1:3">
@@ -6206,7 +6203,7 @@
         <v>328</v>
       </c>
       <c r="C327" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="328" spans="1:3">
@@ -6228,7 +6225,7 @@
         <v>330</v>
       </c>
       <c r="C329" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="330" spans="1:3">
@@ -6283,7 +6280,7 @@
         <v>335</v>
       </c>
       <c r="C334" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="335" spans="1:3">
@@ -6294,7 +6291,7 @@
         <v>336</v>
       </c>
       <c r="C335" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="336" spans="1:3">
@@ -6305,7 +6302,7 @@
         <v>337</v>
       </c>
       <c r="C336" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="337" spans="1:3">
@@ -6316,7 +6313,7 @@
         <v>338</v>
       </c>
       <c r="C337" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="338" spans="1:3">
@@ -6327,7 +6324,7 @@
         <v>339</v>
       </c>
       <c r="C338" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="339" spans="1:3">
@@ -6338,7 +6335,7 @@
         <v>340</v>
       </c>
       <c r="C339" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="340" spans="1:3">
@@ -6349,7 +6346,7 @@
         <v>341</v>
       </c>
       <c r="C340" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="341" spans="1:3">
@@ -6360,7 +6357,7 @@
         <v>342</v>
       </c>
       <c r="C341" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="342" spans="1:3">
@@ -6371,7 +6368,7 @@
         <v>343</v>
       </c>
       <c r="C342" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="343" spans="1:3">
@@ -6382,7 +6379,7 @@
         <v>344</v>
       </c>
       <c r="C343" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="344" spans="1:3">
@@ -6393,7 +6390,7 @@
         <v>345</v>
       </c>
       <c r="C344" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="345" spans="1:3">
@@ -6415,7 +6412,7 @@
         <v>347</v>
       </c>
       <c r="C346" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="347" spans="1:3">
@@ -6426,7 +6423,7 @@
         <v>348</v>
       </c>
       <c r="C347" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="348" spans="1:3">
@@ -6437,7 +6434,7 @@
         <v>349</v>
       </c>
       <c r="C348" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="349" spans="1:3">
@@ -6459,7 +6456,7 @@
         <v>351</v>
       </c>
       <c r="C350" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="351" spans="1:3">
@@ -6470,7 +6467,7 @@
         <v>352</v>
       </c>
       <c r="C351" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="352" spans="1:3">
@@ -6481,7 +6478,7 @@
         <v>353</v>
       </c>
       <c r="C352" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="353" spans="1:3">
@@ -6514,7 +6511,7 @@
         <v>356</v>
       </c>
       <c r="C355" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="356" spans="1:3">
@@ -6536,7 +6533,7 @@
         <v>358</v>
       </c>
       <c r="C357" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="358" spans="1:3">
@@ -6547,7 +6544,7 @@
         <v>359</v>
       </c>
       <c r="C358" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="359" spans="1:3">
@@ -6558,7 +6555,7 @@
         <v>360</v>
       </c>
       <c r="C359" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="360" spans="1:3">
@@ -6591,7 +6588,7 @@
         <v>363</v>
       </c>
       <c r="C362" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="363" spans="1:3">
@@ -6602,7 +6599,7 @@
         <v>364</v>
       </c>
       <c r="C363" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="364" spans="1:3">
@@ -6635,7 +6632,7 @@
         <v>367</v>
       </c>
       <c r="C366" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="367" spans="1:3">
@@ -6646,7 +6643,7 @@
         <v>368</v>
       </c>
       <c r="C367" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="368" spans="1:3">
@@ -6657,7 +6654,7 @@
         <v>369</v>
       </c>
       <c r="C368" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="369" spans="1:3">
@@ -6668,7 +6665,7 @@
         <v>370</v>
       </c>
       <c r="C369" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="370" spans="1:3">
@@ -6679,7 +6676,7 @@
         <v>371</v>
       </c>
       <c r="C370" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="371" spans="1:3">
@@ -6690,7 +6687,7 @@
         <v>372</v>
       </c>
       <c r="C371" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="372" spans="1:3">
@@ -6734,7 +6731,7 @@
         <v>376</v>
       </c>
       <c r="C375" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="376" spans="1:3">
@@ -6778,7 +6775,7 @@
         <v>380</v>
       </c>
       <c r="C379" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="380" spans="1:3">
@@ -6789,7 +6786,7 @@
         <v>381</v>
       </c>
       <c r="C380" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="381" spans="1:3">
@@ -6811,7 +6808,7 @@
         <v>383</v>
       </c>
       <c r="C382" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="383" spans="1:3">
@@ -6877,7 +6874,7 @@
         <v>389</v>
       </c>
       <c r="C388" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="389" spans="1:3">
@@ -6910,7 +6907,7 @@
         <v>392</v>
       </c>
       <c r="C391" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="392" spans="1:3">
@@ -6965,7 +6962,7 @@
         <v>397</v>
       </c>
       <c r="C396" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="397" spans="1:3">
@@ -6976,7 +6973,7 @@
         <v>398</v>
       </c>
       <c r="C397" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="398" spans="1:3">
@@ -7009,7 +7006,7 @@
         <v>401</v>
       </c>
       <c r="C400" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="401" spans="1:3">
@@ -7020,7 +7017,7 @@
         <v>402</v>
       </c>
       <c r="C401" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="402" spans="1:3">
@@ -7031,7 +7028,7 @@
         <v>403</v>
       </c>
       <c r="C402" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="403" spans="1:3">
@@ -7053,7 +7050,7 @@
         <v>405</v>
       </c>
       <c r="C404" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="405" spans="1:3">
@@ -7064,7 +7061,7 @@
         <v>406</v>
       </c>
       <c r="C405" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="406" spans="1:3">
@@ -7075,7 +7072,7 @@
         <v>407</v>
       </c>
       <c r="C406" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="407" spans="1:3">
@@ -7086,7 +7083,7 @@
         <v>408</v>
       </c>
       <c r="C407" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="408" spans="1:3">
@@ -7097,7 +7094,7 @@
         <v>409</v>
       </c>
       <c r="C408" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="409" spans="1:3">
@@ -7108,7 +7105,7 @@
         <v>410</v>
       </c>
       <c r="C409" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="410" spans="1:3">
@@ -7119,7 +7116,7 @@
         <v>411</v>
       </c>
       <c r="C410" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="411" spans="1:3">
@@ -7130,7 +7127,7 @@
         <v>412</v>
       </c>
       <c r="C411" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="412" spans="1:3">
@@ -7163,7 +7160,7 @@
         <v>415</v>
       </c>
       <c r="C414" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="415" spans="1:3">
@@ -7174,7 +7171,7 @@
         <v>416</v>
       </c>
       <c r="C415" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="416" spans="1:3">
@@ -7185,7 +7182,7 @@
         <v>417</v>
       </c>
       <c r="C416" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="417" spans="1:3">
@@ -7207,7 +7204,7 @@
         <v>419</v>
       </c>
       <c r="C418" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="419" spans="1:3">
@@ -7229,7 +7226,7 @@
         <v>421</v>
       </c>
       <c r="C420" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="421" spans="1:3">
@@ -7339,7 +7336,7 @@
         <v>431</v>
       </c>
       <c r="C430" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="431" spans="1:3">
@@ -7350,7 +7347,7 @@
         <v>432</v>
       </c>
       <c r="C431" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="432" spans="1:3">
@@ -7361,7 +7358,7 @@
         <v>433</v>
       </c>
       <c r="C432" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="433" spans="1:3">
@@ -7416,7 +7413,7 @@
         <v>438</v>
       </c>
       <c r="C437" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="438" spans="1:3">
@@ -7427,7 +7424,7 @@
         <v>439</v>
       </c>
       <c r="C438" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="439" spans="1:3">
@@ -7438,7 +7435,7 @@
         <v>440</v>
       </c>
       <c r="C439" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="440" spans="1:3">
@@ -7449,7 +7446,7 @@
         <v>441</v>
       </c>
       <c r="C440" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="441" spans="1:3">
@@ -7460,7 +7457,7 @@
         <v>442</v>
       </c>
       <c r="C441" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="442" spans="1:3">
@@ -7471,7 +7468,7 @@
         <v>443</v>
       </c>
       <c r="C442" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="443" spans="1:3">
@@ -7482,7 +7479,7 @@
         <v>444</v>
       </c>
       <c r="C443" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="444" spans="1:3">
@@ -7493,7 +7490,7 @@
         <v>445</v>
       </c>
       <c r="C444" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="445" spans="1:3">
@@ -7515,7 +7512,7 @@
         <v>447</v>
       </c>
       <c r="C446" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="447" spans="1:3">
@@ -7537,7 +7534,7 @@
         <v>449</v>
       </c>
       <c r="C448" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="449" spans="1:3">
@@ -7548,7 +7545,7 @@
         <v>450</v>
       </c>
       <c r="C449" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="450" spans="1:3">
@@ -7559,7 +7556,7 @@
         <v>451</v>
       </c>
       <c r="C450" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="451" spans="1:3">
@@ -7581,7 +7578,7 @@
         <v>453</v>
       </c>
       <c r="C452" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="453" spans="1:3">
@@ -7592,7 +7589,7 @@
         <v>454</v>
       </c>
       <c r="C453" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="454" spans="1:3">
@@ -7625,7 +7622,7 @@
         <v>457</v>
       </c>
       <c r="C456" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="457" spans="1:3">
@@ -7658,7 +7655,7 @@
         <v>460</v>
       </c>
       <c r="C459" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="460" spans="1:3">
@@ -7680,7 +7677,7 @@
         <v>462</v>
       </c>
       <c r="C461" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="462" spans="1:3">
@@ -7691,7 +7688,7 @@
         <v>463</v>
       </c>
       <c r="C462" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="463" spans="1:3">
@@ -7702,7 +7699,7 @@
         <v>464</v>
       </c>
       <c r="C463" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="464" spans="1:3">
@@ -7724,7 +7721,7 @@
         <v>466</v>
       </c>
       <c r="C465" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="466" spans="1:3">
@@ -7746,7 +7743,7 @@
         <v>468</v>
       </c>
       <c r="C467" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="468" spans="1:3">
@@ -7768,7 +7765,7 @@
         <v>470</v>
       </c>
       <c r="C469" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="470" spans="1:3">
@@ -7779,7 +7776,7 @@
         <v>471</v>
       </c>
       <c r="C470" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="471" spans="1:3">
@@ -7790,7 +7787,7 @@
         <v>472</v>
       </c>
       <c r="C471" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="472" spans="1:3">
@@ -7801,7 +7798,7 @@
         <v>473</v>
       </c>
       <c r="C472" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="473" spans="1:3">
@@ -7823,7 +7820,7 @@
         <v>475</v>
       </c>
       <c r="C474" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="475" spans="1:3">
@@ -7834,7 +7831,7 @@
         <v>476</v>
       </c>
       <c r="C475" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="476" spans="1:3">
@@ -7867,7 +7864,7 @@
         <v>479</v>
       </c>
       <c r="C478" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="479" spans="1:3">
@@ -7889,7 +7886,7 @@
         <v>481</v>
       </c>
       <c r="C480" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="481" spans="1:3">
